--- a/Table S1 Pseudocodes of existing functions in the II2PM convertor.xlsx
+++ b/Table S1 Pseudocodes of existing functions in the II2PM convertor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenghua/Documents/Social media for road related incidents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{436C3F71-54AF-BF4F-B66E-08191F0BC5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E47A80-AC56-214C-8694-6929F802B290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14900" xr2:uid="{CC5A35A8-F020-8B4A-A97D-3FE016F46E02}"/>
   </bookViews>
@@ -3009,7 +3009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3018,9 +3018,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3040,12 +3037,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3361,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51FBA9B-72D9-0F40-AF93-FA6B1A4C2B7E}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3375,648 +3374,645 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>1</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>8</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>11</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>12</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>14</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>15</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>16</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>17</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>18</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>19</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>20</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>21</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>22</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>23</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>24</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="B42" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>2</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>3</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B46" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>5</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>6</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>7</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>8</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>9</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>1</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>2</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>3</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>4</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>1</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
+        <v>2</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>3</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>4</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+      <c r="B68" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <v>1</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>2</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
+        <v>3</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <v>4</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10">
+        <v>5</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+      <c r="B78" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
         <v>7</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+      <c r="B79" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
         <v>8</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+      <c r="B80" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
         <v>9</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="B81" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
         <v>10</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="B82" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
         <v>11</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="B83" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10">
         <v>12</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
-        <v>13</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
-        <v>14</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
-        <v>15</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
-        <v>16</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
-        <v>17</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
-        <v>18</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
-        <v>19</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
-        <v>20</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
-        <v>21</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
-        <v>22</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>23</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>24</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11">
-        <v>1</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11">
-        <v>2</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11">
-        <v>3</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11">
-        <v>4</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="11">
-        <v>5</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11">
-        <v>6</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11">
-        <v>7</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="11">
-        <v>8</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="11">
-        <v>9</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
-        <v>1</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
-        <v>2</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
-        <v>3</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
-        <v>4</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
-        <v>1</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11">
-        <v>2</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11">
-        <v>3</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11">
-        <v>4</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="11">
-        <v>5</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="11">
-        <v>1</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="11">
-        <v>2</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="11">
-        <v>3</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="11">
-        <v>4</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="11">
-        <v>5</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="11">
-        <v>6</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="11">
-        <v>7</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
-        <v>8</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
-        <v>9</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
-        <v>10</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
-        <v>11</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="11">
-        <v>12</v>
-      </c>
-      <c r="B85" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A53:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
